--- a/data/output/set50/low_noisy/results/psnr.xlsx
+++ b/data/output/set50/low_noisy/results/psnr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\low_noisy\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set50\low_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E96AC0B-234D-4918-B79D-9093D63DBBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26F386F-A649-43F4-87FF-40413A5BE7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>psnr_nlm</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>psnr_bm3d</t>
+  </si>
+  <si>
+    <t>psnr_dual</t>
   </si>
 </sst>
 </file>
@@ -414,576 +417,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>35.8737584</v>
+      </c>
+      <c r="B2" s="2">
         <v>38.37579625</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>39.363318800000002</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>40.328186379999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>34.367576360000001</v>
+      </c>
+      <c r="B3" s="2">
         <v>36.385210469232007</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>37.197846300395</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>37.950003561168387</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>33.242258</v>
+      </c>
+      <c r="B4" s="2">
         <v>35.662353782795812</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>36.43642650854342</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>36.595511244672878</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>33.343154589999997</v>
+      </c>
+      <c r="B5" s="2">
         <v>36.558912931176472</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>37.175563672227533</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>34.705636347398062</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>33.563916460000002</v>
+      </c>
+      <c r="B6" s="2">
         <v>35.737098833034288</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>36.476841746781723</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>36.900501491688843</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>34.215342800000002</v>
+      </c>
+      <c r="B7" s="2">
         <v>35.832710073405423</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>36.774162637978989</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>36.957806619224151</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>34.116074310000002</v>
+      </c>
+      <c r="B8" s="2">
         <v>35.646538253396763</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>35.943676787744117</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>31.997701536389268</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>31.042537549999999</v>
+      </c>
+      <c r="B9" s="2">
         <v>34.697935911891939</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>35.098244190363459</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>33.339533372186978</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>33.56472806</v>
+      </c>
+      <c r="B10" s="2">
         <v>36.309051014370112</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>36.86233862266365</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>37.152392199454447</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>33.0981399</v>
+      </c>
+      <c r="B11" s="2">
         <v>35.838202382044379</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>36.228506420041818</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>33.384340231669981</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>35.24623072</v>
+      </c>
+      <c r="B12" s="2">
         <v>37.238176896464353</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>37.902408125453711</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>39.132947799508543</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>31.517862399999999</v>
+      </c>
+      <c r="B13" s="2">
         <v>35.458936776289008</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>35.919734529432752</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>34.185765237825152</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32.850727190000001</v>
+      </c>
+      <c r="B14" s="2">
         <v>35.317786561212053</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>35.910029140691137</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>34.900698837031037</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>34.761755149999999</v>
+      </c>
+      <c r="B15" s="2">
         <v>36.493809639714001</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>37.146743411189981</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>38.344120685347839</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32.956643939999999</v>
+      </c>
+      <c r="B16" s="2">
         <v>34.342171413749043</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>34.417578641430417</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>30.197889193147489</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>33.438986409999998</v>
+      </c>
+      <c r="B17" s="2">
         <v>34.980222228690202</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>35.07918717031324</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>32.475946104298131</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>32.105901719999999</v>
+      </c>
+      <c r="B18" s="2">
         <v>34.235246192423944</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>34.327475066485647</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>27.124924608872611</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>31.231994050000001</v>
+      </c>
+      <c r="B19" s="2">
         <v>34.760282677944723</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="2">
         <v>35.052848488130643</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>32.331609359321412</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>30.78834406</v>
+      </c>
+      <c r="B20" s="2">
         <v>34.726049740671577</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="2">
         <v>34.843777196023787</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>26.845800574097549</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>32.322617319999999</v>
+      </c>
+      <c r="B21" s="2">
         <v>35.509205318914809</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="2">
         <v>35.992863113306093</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>34.165354129201702</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>33.302342230000001</v>
+      </c>
+      <c r="B22" s="2">
         <v>34.756530922419763</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="2">
         <v>34.912531714403869</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>34.18529770165469</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>33.033702609999999</v>
+      </c>
+      <c r="B23" s="2">
         <v>36.093921636501733</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="2">
         <v>36.449839258936933</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>36.302222261788579</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>33.590382599999998</v>
+      </c>
+      <c r="B24" s="2">
         <v>35.836584437248717</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="2">
         <v>35.811220811796453</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>33.372411301496733</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>36.23699688</v>
+      </c>
+      <c r="B25" s="2">
         <v>38.18762248084311</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C25" s="2">
         <v>38.818554919523031</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>39.566744884784001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>33.95876268</v>
+      </c>
+      <c r="B26" s="2">
         <v>36.498034690495707</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="2">
         <v>36.991525563501973</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>37.053184907973503</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>35.835473909999997</v>
+      </c>
+      <c r="B27" s="2">
         <v>37.903294726571097</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="2">
         <v>38.473468163369567</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>37.742424298045037</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>33.485978719999999</v>
+      </c>
+      <c r="B28" s="2">
         <v>36.023876998861148</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="2">
         <v>36.942627921857643</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>37.268408342811952</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>35.654690799999997</v>
+      </c>
+      <c r="B29" s="2">
         <v>37.705088017001017</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C29" s="2">
         <v>38.171428146585598</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>38.008432123185372</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>34.308185530000003</v>
+      </c>
+      <c r="B30" s="2">
         <v>36.430728445015561</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C30" s="2">
         <v>36.936945783900782</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>36.638665825906493</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32.26939883</v>
+      </c>
+      <c r="B31" s="2">
         <v>34.298674251606478</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C31" s="2">
         <v>34.363201054539537</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>28.331623481820959</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32.40814125</v>
+      </c>
+      <c r="B32" s="2">
         <v>34.962383450468778</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C32" s="2">
         <v>35.392214553052483</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>34.312537363986458</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31.899109549999999</v>
+      </c>
+      <c r="B33" s="2">
         <v>34.440293270175637</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C33" s="2">
         <v>34.49474218917193</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>27.51584263238373</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31.695940619999998</v>
+      </c>
+      <c r="B34" s="2">
         <v>35.022733059188518</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C34" s="2">
         <v>35.245503442966474</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>29.409910729676021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32.164499650000003</v>
+      </c>
+      <c r="B35" s="2">
         <v>34.998476864137089</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C35" s="2">
         <v>35.569010225433168</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>33.947884787055678</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>32.139545040000002</v>
+      </c>
+      <c r="B36" s="2">
         <v>34.440636790367783</v>
       </c>
-      <c r="B36" s="2">
+      <c r="C36" s="2">
         <v>34.982528654113437</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>33.605163933459643</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>33.182599750000001</v>
+      </c>
+      <c r="B37" s="2">
         <v>35.750934625351142</v>
       </c>
-      <c r="B37" s="2">
+      <c r="C37" s="2">
         <v>36.198262617124442</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>35.348201268701573</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>32.395735899999998</v>
+      </c>
+      <c r="B38" s="2">
         <v>35.062395979047793</v>
       </c>
-      <c r="B38" s="2">
+      <c r="C38" s="2">
         <v>35.403291239600087</v>
       </c>
-      <c r="C38" s="2">
+      <c r="D38" s="2">
         <v>34.560282554056911</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>31.84832566</v>
+      </c>
+      <c r="B39" s="2">
         <v>34.572862702385919</v>
       </c>
-      <c r="B39" s="2">
+      <c r="C39" s="2">
         <v>35.03723277779325</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" s="2">
         <v>34.181074791674952</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>34.264384319999998</v>
+      </c>
+      <c r="B40" s="2">
         <v>36.086244047885771</v>
       </c>
-      <c r="B40" s="2">
+      <c r="C40" s="2">
         <v>36.760106722769599</v>
       </c>
-      <c r="C40" s="2">
+      <c r="D40" s="2">
         <v>37.431498054064413</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>35.393887710000001</v>
+      </c>
+      <c r="B41" s="2">
         <v>37.5619957597427</v>
       </c>
-      <c r="B41" s="2">
+      <c r="C41" s="2">
         <v>38.004925494565931</v>
       </c>
-      <c r="C41" s="2">
+      <c r="D41" s="2">
         <v>38.82510287366982</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>34.114728999999997</v>
+      </c>
+      <c r="B42" s="2">
         <v>36.290189552197553</v>
       </c>
-      <c r="B42" s="2">
+      <c r="C42" s="2">
         <v>37.498095916722761</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42" s="2">
         <v>38.273302874661127</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>33.84263035</v>
+      </c>
+      <c r="B43" s="2">
         <v>35.775561327916897</v>
       </c>
-      <c r="B43" s="2">
+      <c r="C43" s="2">
         <v>36.558373079838802</v>
       </c>
-      <c r="C43" s="2">
+      <c r="D43" s="2">
         <v>36.926577932512281</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>32.577649950000001</v>
+      </c>
+      <c r="B44" s="2">
         <v>35.367822942555527</v>
       </c>
-      <c r="B44" s="2">
+      <c r="C44" s="2">
         <v>36.019902281858968</v>
       </c>
-      <c r="C44" s="2">
+      <c r="D44" s="2">
         <v>30.736638950810661</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>34.566123670000003</v>
+      </c>
+      <c r="B45" s="2">
         <v>36.301161096554971</v>
       </c>
-      <c r="B45" s="2">
+      <c r="C45" s="2">
         <v>37.287709552897446</v>
       </c>
-      <c r="C45" s="2">
+      <c r="D45" s="2">
         <v>36.418172945816913</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>31.49534079</v>
+      </c>
+      <c r="B46" s="2">
         <v>34.19771315516688</v>
       </c>
-      <c r="B46" s="2">
+      <c r="C46" s="2">
         <v>33.813656404526448</v>
       </c>
-      <c r="C46" s="2">
+      <c r="D46" s="2">
         <v>19.27898975529126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>32.836130439999998</v>
+      </c>
+      <c r="B47" s="2">
         <v>35.399963057746056</v>
       </c>
-      <c r="B47" s="2">
+      <c r="C47" s="2">
         <v>35.787489689727323</v>
       </c>
-      <c r="C47" s="2">
+      <c r="D47" s="2">
         <v>35.183175265793977</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>32.961451619999998</v>
+      </c>
+      <c r="B48" s="2">
         <v>34.696584835978697</v>
       </c>
-      <c r="B48" s="2">
+      <c r="C48" s="2">
         <v>35.084621510421663</v>
       </c>
-      <c r="C48" s="2">
+      <c r="D48" s="2">
         <v>33.636461387231037</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>32.63348088</v>
+      </c>
+      <c r="B49" s="2">
         <v>34.45912704739105</v>
       </c>
-      <c r="B49" s="2">
+      <c r="C49" s="2">
         <v>34.724307274517393</v>
       </c>
-      <c r="C49" s="2">
+      <c r="D49" s="2">
         <v>32.141990496227507</v>
       </c>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>34.758508130000003</v>
+      </c>
+      <c r="B50" s="2">
         <v>36.778860093113657</v>
       </c>
-      <c r="B50" s="2">
+      <c r="C50" s="2">
         <v>37.527755527648957</v>
       </c>
-      <c r="C50" s="2">
+      <c r="D50" s="2">
         <v>38.463077487965798</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>33.247196799999998</v>
+      </c>
+      <c r="B51" s="2">
         <v>36.672154654983963</v>
       </c>
-      <c r="B51" s="2">
+      <c r="C51" s="2">
         <v>36.991438903007143</v>
       </c>
-      <c r="C51" s="2">
+      <c r="D51" s="2">
         <v>35.672750825339222</v>
       </c>
     </row>
